--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
@@ -549,10 +549,10 @@
         <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N2">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q2">
-        <v>17.60992762462833</v>
+        <v>21.15970386343666</v>
       </c>
       <c r="R2">
-        <v>158.489348621655</v>
+        <v>190.43733477093</v>
       </c>
       <c r="S2">
-        <v>0.06986335973103718</v>
+        <v>0.07528445186945809</v>
       </c>
       <c r="T2">
-        <v>0.06986335973103718</v>
+        <v>0.07528445186945809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>14.527783</v>
       </c>
       <c r="O3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q3">
         <v>36.39110368316167</v>
@@ -641,10 +641,10 @@
         <v>327.519933148455</v>
       </c>
       <c r="S3">
-        <v>0.1443733797105742</v>
+        <v>0.1294764951056586</v>
       </c>
       <c r="T3">
-        <v>0.1443733797105742</v>
+        <v>0.1294764951056586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N4">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q4">
-        <v>31.53931406265333</v>
+        <v>41.61536411784499</v>
       </c>
       <c r="R4">
-        <v>283.85382656388</v>
+        <v>374.538277060605</v>
       </c>
       <c r="S4">
-        <v>0.1251250141964064</v>
+        <v>0.1480639756198851</v>
       </c>
       <c r="T4">
-        <v>0.1251250141964064</v>
+        <v>0.1480639756198851</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>22.544385</v>
       </c>
       <c r="I5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N5">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O5">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P5">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q5">
-        <v>13.73713042767666</v>
+        <v>8.932052772888333</v>
       </c>
       <c r="R5">
-        <v>123.63417384909</v>
+        <v>80.38847495599499</v>
       </c>
       <c r="S5">
-        <v>0.05449892272122311</v>
+        <v>0.03177949471390929</v>
       </c>
       <c r="T5">
-        <v>0.0544989227212231</v>
+        <v>0.03177949471390929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>22.544385</v>
       </c>
       <c r="I6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N6">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q6">
-        <v>112.8094247680483</v>
+        <v>141.6621495195683</v>
       </c>
       <c r="R6">
-        <v>1015.284822912435</v>
+        <v>1274.959345676115</v>
       </c>
       <c r="S6">
-        <v>0.4475455885803434</v>
+        <v>0.5040220480428672</v>
       </c>
       <c r="T6">
-        <v>0.4475455885803434</v>
+        <v>0.5040220480428672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>22.544385</v>
       </c>
       <c r="I7">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J7">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N7">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q7">
-        <v>37.99618874721166</v>
+        <v>25.02673721262333</v>
       </c>
       <c r="R7">
-        <v>341.9656987249049</v>
+        <v>225.24063491361</v>
       </c>
       <c r="S7">
-        <v>0.1507411875527717</v>
+        <v>0.08904303223208275</v>
       </c>
       <c r="T7">
-        <v>0.1507411875527717</v>
+        <v>0.08904303223208275</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H8">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I8">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J8">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N8">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O8">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P8">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q8">
-        <v>0.1393772598328889</v>
+        <v>0.4832991306519999</v>
       </c>
       <c r="R8">
-        <v>1.254395338496</v>
+        <v>4.349692175867999</v>
       </c>
       <c r="S8">
-        <v>0.0005529473970360435</v>
+        <v>0.001719537776849206</v>
       </c>
       <c r="T8">
-        <v>0.0005529473970360436</v>
+        <v>0.001719537776849206</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H9">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I9">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J9">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>14.527783</v>
       </c>
       <c r="O9">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P9">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q9">
-        <v>0.2880245973617778</v>
+        <v>0.831192576562</v>
       </c>
       <c r="R9">
-        <v>2.592221376256</v>
+        <v>7.480733189057999</v>
       </c>
       <c r="S9">
-        <v>0.001142671706880324</v>
+        <v>0.002957313482659934</v>
       </c>
       <c r="T9">
-        <v>0.001142671706880324</v>
+        <v>0.002957313482659935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H10">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I10">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J10">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N10">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O10">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P10">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q10">
-        <v>0.2496241475128889</v>
+        <v>0.9505175228219999</v>
       </c>
       <c r="R10">
-        <v>2.246617327616</v>
+        <v>8.554657705398</v>
       </c>
       <c r="S10">
-        <v>0.0009903267058779018</v>
+        <v>0.003381861634728335</v>
       </c>
       <c r="T10">
-        <v>0.0009903267058779021</v>
+        <v>0.003381861634728336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H11">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I11">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J11">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N11">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O11">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P11">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q11">
-        <v>0.1087252394097778</v>
+        <v>0.204012937418</v>
       </c>
       <c r="R11">
-        <v>0.9785271546879999</v>
+        <v>1.836116436762</v>
       </c>
       <c r="S11">
-        <v>0.0004313425173937227</v>
+        <v>0.0007258609225780368</v>
       </c>
       <c r="T11">
-        <v>0.0004313425173937227</v>
+        <v>0.0007258609225780369</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H12">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I12">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J12">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N12">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O12">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P12">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q12">
-        <v>0.8928525342435555</v>
+        <v>3.235640448986</v>
       </c>
       <c r="R12">
-        <v>8.035672808192</v>
+        <v>29.120764040874</v>
       </c>
       <c r="S12">
-        <v>0.003542188197263657</v>
+        <v>0.01151213737303198</v>
       </c>
       <c r="T12">
-        <v>0.003542188197263658</v>
+        <v>0.01151213737303198</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H13">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I13">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J13">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N13">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O13">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P13">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q13">
-        <v>0.3007283609884445</v>
+        <v>0.571624273004</v>
       </c>
       <c r="R13">
-        <v>2.706555248896</v>
+        <v>5.144618457036</v>
       </c>
       <c r="S13">
-        <v>0.001193070983192319</v>
+        <v>0.002033791226291489</v>
       </c>
       <c r="T13">
-        <v>0.001193070983192319</v>
+        <v>0.002033791226291489</v>
       </c>
     </row>
   </sheetData>
